--- a/biology/Botanique/Hêtre_mexicain/Hêtre_mexicain.xlsx
+++ b/biology/Botanique/Hêtre_mexicain/Hêtre_mexicain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_mexicain</t>
+          <t>Hêtre_mexicain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fagus grandifolia subsp. mexicana
 Le hêtre mexicain ou haya (Fagus grandifolia subsp. mexicana) est une sous-espèce endémique du Nord-Est du Mexique, où il se rencontre depuis le Sud-Est de Tamaulipas jusqu'au Sud de l'Hidalgo et de Puebla; il est réduit aux forêts de nuages de haute altitude en montagne. C'est un arbre à feuilles caduques, atteignant entre 25 et 40 m en hauteur et qui possède un tronc de plus d'un mètre de diamètre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_mexicain</t>
+          <t>Hêtre_mexicain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Certaines sources présentent cet arbre comme une sous-espèce de hêtre à grandes feuilles. Toutefois, il semble que des sources mexicaines considèrent toujours ce hêtre comme une espèce à part entière.
 Fagus mexicana Martínez
